--- a/data/Analyse.xlsx
+++ b/data/Analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lsbap\Documents\GitHub\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5BE14-301B-4E35-ACC3-77BE52F7C060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92652DDA-EEF8-45B6-A8DB-2528EA86F827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4456BC7D-CE03-4CE9-A3FB-5C1FD760A761}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -256,22 +256,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3338,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF692BA-6871-4118-AC05-6FB2783C24BA}">
   <dimension ref="A1:Y322"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M6" workbookViewId="0">
       <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
@@ -4626,7 +4626,7 @@
         <v>1.8983400000000001E-2</v>
       </c>
       <c r="X27" s="8">
-        <v>1.4048959999999999E-2</v>
+        <v>1.7548359999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
@@ -4687,7 +4687,7 @@
         <v>2.9942670000000001E-2</v>
       </c>
       <c r="X28" s="11">
-        <v>1.7953E-2</v>
+        <v>2.744096E-2</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">

--- a/data/Analyse.xlsx
+++ b/data/Analyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lsbap\Documents\GitHub\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EFE9E-64CF-43FF-BD75-CAA3D03EC6EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD74C459-918A-4CDD-B481-DEF0CF9100EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4456BC7D-CE03-4CE9-A3FB-5C1FD760A761}"/>
   </bookViews>
@@ -374,6 +374,249 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$P$2:$P$79</c:f>
@@ -665,6 +908,249 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$P$83:$P$160</c:f>
@@ -956,6 +1442,249 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$P$164:$P$241</c:f>
@@ -1250,6 +1979,249 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$P$245:$P$322</c:f>
@@ -1513,7 +2485,7 @@
         <c:axId val="343076368"/>
         <c:axId val="343083024"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="343076368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1560,10 +2532,9 @@
         <c:crossAx val="343083024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="343083024"/>
         <c:scaling>
@@ -2566,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF692BA-6871-4118-AC05-6FB2783C24BA}">
   <dimension ref="A1:X322"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
